--- a/refrain-tools/00-master-data/map-shipment-scheme/map_shipment_scheme_20170701.xlsx
+++ b/refrain-tools/00-master-data/map-shipment-scheme/map_shipment_scheme_20170701.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="map_shipment_scheme_20170701" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="39">
   <si>
     <t>id_shipment_scheme</t>
   </si>
@@ -120,6 +120,9 @@
     <t>MASTER ACCOUNT</t>
   </si>
   <si>
+    <t>drop_shipping</t>
+  </si>
+  <si>
     <t>CashOnDelivery</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
   </si>
   <si>
     <t>Seller Fleet</t>
-  </si>
-  <si>
-    <t>drop_shipping</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
     <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1288,10 +1288,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -1332,10 +1332,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1376,10 +1376,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -1420,10 +1420,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -1464,10 +1464,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1508,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1552,10 +1552,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1596,10 +1596,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1640,10 +1640,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1684,10 +1684,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1728,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1772,10 +1772,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>23</v>
@@ -1875,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>24</v>
@@ -1919,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>25</v>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
@@ -2253,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -2262,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
@@ -2297,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
@@ -2306,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -2341,7 +2341,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
@@ -2350,16 +2350,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
@@ -2385,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>22</v>
@@ -2394,16 +2394,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
@@ -2429,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -2438,16 +2438,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>15</v>
@@ -2473,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>22</v>
@@ -2482,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>15</v>
@@ -2517,7 +2517,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -2526,16 +2526,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>15</v>
@@ -2561,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -2570,16 +2570,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>15</v>
@@ -2605,7 +2605,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
@@ -2614,16 +2614,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>15</v>
@@ -2649,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
@@ -2658,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
@@ -2693,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>15</v>
@@ -2737,7 +2737,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -2746,16 +2746,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>15</v>
@@ -2781,7 +2781,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
@@ -2790,16 +2790,16 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>15</v>
@@ -2825,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
@@ -2834,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>15</v>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>22</v>
@@ -2878,16 +2878,16 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
@@ -2913,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -2922,16 +2922,16 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>15</v>

--- a/refrain-tools/00-master-data/map-shipment-scheme/map_shipment_scheme_20170701.xlsx
+++ b/refrain-tools/00-master-data/map-shipment-scheme/map_shipment_scheme_20170701.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map_shipment_scheme_20170701" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>auto_shipping_fee_credit</t>
   </si>
   <si>
-    <t>api_type</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -90,36 +87,36 @@
     <t>EXPRESS DIRECT BILLING</t>
   </si>
   <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>nextday</t>
+  </si>
+  <si>
+    <t>sameday</t>
+  </si>
+  <si>
+    <t>DIRECT BILLING</t>
+  </si>
+  <si>
+    <t>EXPRESS FBL</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>EXPRESS MASTER ACCOUNT</t>
+  </si>
+  <si>
+    <t>FBL</t>
+  </si>
+  <si>
+    <t>MASTER ACCOUNT</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>express</t>
-  </si>
-  <si>
-    <t>nextday</t>
-  </si>
-  <si>
-    <t>sameday</t>
-  </si>
-  <si>
-    <t>DIRECT BILLING</t>
-  </si>
-  <si>
-    <t>EXPRESS FBL</t>
-  </si>
-  <si>
-    <t>warehouse</t>
-  </si>
-  <si>
-    <t>EXPRESS MASTER ACCOUNT</t>
-  </si>
-  <si>
-    <t>FBL</t>
-  </si>
-  <si>
-    <t>MASTER ACCOUNT</t>
-  </si>
-  <si>
     <t>drop_shipping</t>
   </si>
   <si>
@@ -139,12 +136,15 @@
   </si>
   <si>
     <t>Seller Fleet</t>
+  </si>
+  <si>
+    <t>fk_api_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1008,7 +1008,7 @@
     <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1048,13 +1048,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1062,34 +1062,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -1106,34 +1106,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1150,34 +1150,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -1194,34 +1194,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1238,34 +1238,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -1326,37 +1326,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -1370,37 +1370,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1414,37 +1414,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1458,37 +1458,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -1502,37 +1502,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -1546,37 +1546,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -1590,37 +1590,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -1634,37 +1634,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
@@ -1678,37 +1678,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -1722,37 +1722,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
@@ -1766,37 +1766,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -1810,31 +1810,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1854,31 +1854,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1942,34 +1942,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -1986,34 +1986,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -2030,34 +2030,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -2074,34 +2074,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -2118,34 +2118,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -2162,34 +2162,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -2206,31 +2206,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -2250,34 +2250,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -2294,34 +2294,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -2338,34 +2338,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
@@ -2382,34 +2382,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
@@ -2426,34 +2426,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -2470,34 +2470,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -2514,34 +2514,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -2558,34 +2558,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -2602,34 +2602,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -2646,34 +2646,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -2690,34 +2690,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2734,34 +2734,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -2778,34 +2778,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -2822,34 +2822,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -2866,34 +2866,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -2910,34 +2910,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
@@ -2954,34 +2954,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -2998,34 +2998,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -3038,7 +3038,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N46"/>
+  <autoFilter ref="A1:N46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>